--- a/public/application/files/jasper/templates/notacredito.xlsx
+++ b/public/application/files/jasper/templates/notacredito.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14440" tabRatio="198"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="198"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>{compania:nombre}</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Proveedor</t>
   </si>
   <si>
-    <t>Fecha entrega</t>
-  </si>
-  <si>
     <t>Creado</t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>Nota de credito</t>
+  </si>
+  <si>
+    <t>Almacen</t>
+  </si>
+  <si>
+    <t>Revisada</t>
   </si>
 </sst>
 </file>
@@ -313,19 +316,10 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +332,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -817,7 +820,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -826,144 +829,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
     </row>
     <row r="2" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" ht="29.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="A3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="22.25" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:11" ht="22.25" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
+      <c r="A5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:11" ht="22.25" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
     </row>
     <row r="7" spans="1:11" ht="22.25" customHeight="1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7" t="s">
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
     </row>
     <row r="8" spans="1:11" ht="18">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -984,10 +987,10 @@
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="14"/>
       <c r="D10" s="4" t="s">
         <v>5</v>
       </c>
@@ -1016,6 +1019,19 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="21">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:K6"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:K5"/>
     <mergeCell ref="H4:K4"/>
@@ -1024,19 +1040,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <headerFooter>
